--- a/doc/naive_bayes_sample_excel.xlsx
+++ b/doc/naive_bayes_sample_excel.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Java-Naive-Bayes-Classifier-JNBC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2626E6-7E6B-4BAA-B5F6-AECE38D46A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43840974-EBFC-4B42-BD23-AD05D1F91C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
   </bookViews>
   <sheets>
-    <sheet name="explanation" sheetId="1" r:id="rId1"/>
-    <sheet name="implementation" sheetId="2" r:id="rId2"/>
+    <sheet name="sample1" sheetId="1" r:id="rId1"/>
+    <sheet name="sample1_keyValues" sheetId="3" r:id="rId2"/>
+    <sheet name="sample2" sheetId="4" r:id="rId3"/>
+    <sheet name="sample2_keyValues" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="107">
   <si>
     <t xml:space="preserve"> Hot</t>
   </si>
@@ -196,44 +199,173 @@
     <t>~gL//~cA//Yes//~fE//wind=Weak</t>
   </si>
   <si>
-    <t>~gL//~fE//humidity=High</t>
-  </si>
-  <si>
-    <t>~gL//~fE//humidity=Normal</t>
-  </si>
-  <si>
-    <t>~gL//~fE//outlook=Overcast</t>
-  </si>
-  <si>
-    <t>~gL//~fE//outlook=Rain</t>
-  </si>
-  <si>
-    <t>~gL//~fE//outlook=Sunny</t>
-  </si>
-  <si>
-    <t>~gL//~fE//temp=Cool</t>
-  </si>
-  <si>
-    <t>~gL//~fE//temp=Hot</t>
-  </si>
-  <si>
-    <t>~gL//~fE//temp=Mild</t>
-  </si>
-  <si>
-    <t>~gL//~fE//wind=Strong</t>
-  </si>
-  <si>
-    <t>~gL//~fE//wind=Weak</t>
-  </si>
-  <si>
-    <t>Verify</t>
+    <t>~gL//~cA//Yes//~fE//wind</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Yes//~fE//temp</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Yes//~fE//outlook</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Yes//~fE//humidity</t>
+  </si>
+  <si>
+    <t>~gL//~cA//No//~fE//wind</t>
+  </si>
+  <si>
+    <t>~gL//~cA//No//~fE//temp</t>
+  </si>
+  <si>
+    <t>~gL//~cA//No//~fE//outlook</t>
+  </si>
+  <si>
+    <t>~gL//~cA//No//~fE//humidity</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>~gL//~cA//0//~fE//X1=C</t>
+  </si>
+  <si>
+    <t>~gL//~cA//0//~fE//X1=B</t>
+  </si>
+  <si>
+    <t>~gL//~cA//0//~fE//X1=A</t>
+  </si>
+  <si>
+    <t>~gL//~cA//1</t>
+  </si>
+  <si>
+    <t>~gL//~cA//0//~fE//X2=L</t>
+  </si>
+  <si>
+    <t>~gL//~cA//0</t>
+  </si>
+  <si>
+    <t>~gL//~cA//1//~fE//X2</t>
+  </si>
+  <si>
+    <t>~gL//~cA//1//~fE//X1</t>
+  </si>
+  <si>
+    <t>~gL//~cA//0//~fE//X2</t>
+  </si>
+  <si>
+    <t>~gL//~cA//1//~fE//X2=S</t>
+  </si>
+  <si>
+    <t>~gL//~cA//0//~fE//X2=S</t>
+  </si>
+  <si>
+    <t>~gL//~cA//0//~fE//X1</t>
+  </si>
+  <si>
+    <t>~gL//~cA//1//~fE//X2=M</t>
+  </si>
+  <si>
+    <t>~gL//~cA//0//~fE//X2=M</t>
+  </si>
+  <si>
+    <t>~gL//~cA//1//~fE//X2=L</t>
+  </si>
+  <si>
+    <t>~gL//~cA//1//~fE//X1=B</t>
+  </si>
+  <si>
+    <t>~gL//~cA//1//~fE//X1=A</t>
+  </si>
+  <si>
+    <t>~gL//~cA//1//~fE//X1=C</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P("Y"=1)=</t>
+  </si>
+  <si>
+    <t>P("Y"=0)=</t>
+  </si>
+  <si>
+    <t>P("X1"="B"|Y=1)=</t>
+  </si>
+  <si>
+    <t>P("X1"="A"|Y=1)=</t>
+  </si>
+  <si>
+    <t>P("X1"="C"|Y=1)=</t>
+  </si>
+  <si>
+    <t>P("X2"="S"|Y=1)=</t>
+  </si>
+  <si>
+    <t>P("X2"="M"|Y=1)=</t>
+  </si>
+  <si>
+    <t>P("X2"="L"|Y=1)=</t>
+  </si>
+  <si>
+    <t>P("X1"="B"|Y=0)=</t>
+  </si>
+  <si>
+    <t>P("X1"="A"|Y=0)=</t>
+  </si>
+  <si>
+    <t>P("X1"="C"|Y=0)=</t>
+  </si>
+  <si>
+    <t>P("X2"="S"|Y=0)=</t>
+  </si>
+  <si>
+    <t>P("X2"="M"|Y=0)=</t>
+  </si>
+  <si>
+    <t>P("X2"="L"|Y=0)=</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ProductP0</t>
+  </si>
+  <si>
+    <t>ProductP1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,16 +380,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -265,12 +411,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -279,6 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,6 +507,44 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Elian CARSENAT" refreshedDate="43805.746144560188" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="15" xr:uid="{CB5AF272-B8E2-4E13-9050-30EB8099F159}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="X1" numFmtId="0">
+      <sharedItems count="3">
+        <s v="A"/>
+        <s v="B"/>
+        <s v="C"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="X2" numFmtId="0">
+      <sharedItems count="3">
+        <s v="S"/>
+        <s v="M"/>
+        <s v="L"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Y" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="0"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Observation" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
   <r>
@@ -464,75 +662,103 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -598,11 +824,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{667E9768-9B64-4E05-A2CD-9D16D5D5034E}" name="PivotTable14" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D12:F17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73FCD2B1-4D62-4786-A92B-6A771F40503A}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -612,7 +838,13 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="1"/>
@@ -623,17 +855,14 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -651,7 +880,68 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7E2F67A-8542-4AF7-8624-9C9125E14C8E}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -666,8 +956,294 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1B79DD1-E176-4E5B-8535-0AC7C58A5118}" name="PivotTable13" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D6:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22ED947-C6F5-4442-A021-7FCD16A1CEE6}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BD64302-94A3-4101-A258-21641D66AF30}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F81060C-D6C8-4D2B-B2C0-241A3F1B9FDB}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FD7D612-55A4-4052-8A3C-D1DA68AB7A3F}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
       <items count="4">
@@ -713,7 +1289,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -727,19 +1303,49 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D10884B-1ECD-4C2A-90C8-CFB991247BEB}" name="PivotTable12" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D2:D3" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61A50E0-C108-4B58-A1A8-333579B6799B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -759,8 +1365,75 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD4D01A5-8B85-4036-BA6F-504E86F4E79C}" name="PivotTable10" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD4D01A5-8B85-4036-BA6F-504E86F4E79C}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -833,8 +1506,78 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB0E24CD-68CB-4B56-A9D6-3F54AF1D1897}" name="PivotTable9" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57FC5204-20BF-4133-86B5-A9E318DA254F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB0E24CD-68CB-4B56-A9D6-3F54AF1D1897}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -903,272 +1646,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73FCD2B1-4D62-4786-A92B-6A771F40503A}" name="PivotTable8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61A50E0-C108-4B58-A1A8-333579B6799B}" name="PivotTable6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57FC5204-20BF-4133-86B5-A9E318DA254F}" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C81B27A-3948-470C-9D29-F636E72728D4}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C81B27A-3948-470C-9D29-F636E72728D4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -1238,7 +1717,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476D76E7-B827-4379-85D8-AF9D65C273AA}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476D76E7-B827-4379-85D8-AF9D65C273AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -1321,6 +1800,19 @@
     <tableColumn id="4" xr3:uid="{20D4F00D-60F6-4B60-AA89-4CCD0096FABB}" name="wind"/>
     <tableColumn id="5" xr3:uid="{81AD663F-0571-4D7E-BEB5-74C5BB59717F}" name="play"/>
     <tableColumn id="6" xr3:uid="{9A9B68DC-C152-49DE-97AD-AA2D64913B0B}" name="Observation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0784FF48-3527-4921-AC4E-A46AFB051B91}" name="Table1" displayName="Table1" ref="B2:E17" totalsRowShown="0">
+  <autoFilter ref="B2:E17" xr:uid="{2F4C98F1-BA66-43ED-BE3F-02969C04740E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DC9CBF3A-9704-4A0D-B9A7-DBFEB13FECA8}" name="X1"/>
+    <tableColumn id="2" xr3:uid="{A24D88E3-F637-4930-A038-B6A7D015736D}" name="X2"/>
+    <tableColumn id="3" xr3:uid="{0238BA58-EDFB-4B96-A175-E02702BE7FA0}" name="Y"/>
+    <tableColumn id="4" xr3:uid="{F64136A6-A0B9-4C53-8B5B-1AE6A39FBE03}" name="Observation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1625,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F7E3E5-899C-4353-956B-BB8004DB9709}">
   <dimension ref="B3:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,238 +3043,163 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6D267C-ADB3-4199-9048-A9477DC77DA7}">
-  <dimension ref="A2:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B647E678-FD78-45CC-8F6B-B4C05C2A08A6}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="3">
-        <v>14</v>
-      </c>
-      <c r="H3" t="b">
-        <f>GETPIVOTDATA("Observation",$D$2)=B2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="H7" t="b">
-        <f>GETPIVOTDATA("Observation",$D$6,"play"," Yes")=B6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="H8" t="b">
-        <f>GETPIVOTDATA("Observation",$D$6,"play"," No")=B5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" t="b">
-        <f>GETPIVOTDATA("Observation",$D$12,"outlook","        Sunny","play"," Yes")=B25</f>
-        <v>1</v>
-      </c>
-      <c r="I14" t="b">
-        <f>GETPIVOTDATA("Observation",$D$12,"outlook","        Sunny","play"," No")=B14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="H15" t="b">
-        <f>GETPIVOTDATA("Observation",$D$12,"outlook","        Overcast","play"," Yes")=B23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" t="b">
-        <f>GETPIVOTDATA("Observation",$D$12,"outlook","        Rain","play"," Yes")=B24</f>
-        <v>1</v>
-      </c>
-      <c r="I16" t="b">
-        <f>GETPIVOTDATA("Observation",$D$12,"outlook","        Rain","play"," No")=B13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="3">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2790,164 +3207,1162 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A31">
+    <sortCondition descending="1" ref="A31"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802F5690-627C-4814-9310-3A096A793A75}">
+  <dimension ref="B2:U60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A37" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30">
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34">
+      <c r="L24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35">
+      <c r="E25" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37">
+      <c r="G25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6</v>
+      </c>
+      <c r="I26" s="3">
+        <v>9</v>
+      </c>
+      <c r="J26" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39">
+        <f>GETPIVOTDATA("Observation",$L$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <f>GETPIVOTDATA("Observation",$L$21)</f>
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <f>C39/D39</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40">
+        <f>GETPIVOTDATA("Observation",$L$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <f>GETPIVOTDATA("Observation",$L$21)</f>
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <f>C40/D40</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","B","Y",1)</f>
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <f>C42/D42</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","A","Y",1)</f>
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <f>C43/D43</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","C","Y",1)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39">
+      <c r="D44">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <f>C44/D44</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","S","Y",1)</f>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <f>C46/D46</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","M","Y",1)</f>
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <f>C47/D47</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","L","Y",1)</f>
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <f>C48/D48</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","B","Y",0)</f>
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E51">
+        <f>C51/D51</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","A","Y",0)</f>
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <f>C52/D52</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","C","Y",0)</f>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <f>C53/D53</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","S","Y",0)</f>
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <f>C55/D55</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","M","Y",0)</f>
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <f>C56/D56</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","L","Y",0)</f>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <f>C57/D57</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59">
+        <f>C39*C42*C46</f>
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <f>D39*D42*D46</f>
+        <v>1215</v>
+      </c>
+      <c r="E59">
+        <f>E39*E42*E46</f>
+        <v>2.222222222222222E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60">
+        <f>C40*C51*C55</f>
+        <v>36</v>
+      </c>
+      <c r="D60">
+        <f>D40*D51*D55</f>
+        <v>540</v>
+      </c>
+      <c r="E60">
+        <f>E40*E51*E55</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BF1854-CF86-41E9-BE59-82E148202192}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>61</v>
       </c>
-      <c r="B40">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41">
-        <v>8</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/doc/naive_bayes_sample_excel.xlsx
+++ b/doc/naive_bayes_sample_excel.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Java-Naive-Bayes-Classifier-JNBC\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Java-Naive-Bayes-Classifier-JNBC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43840974-EBFC-4B42-BD23-AD05D1F91C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA7122-7EF3-4FBF-90DC-A5BD926DFA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="3" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="1" r:id="rId1"/>
     <sheet name="sample1_keyValues" sheetId="3" r:id="rId2"/>
     <sheet name="sample2" sheetId="4" r:id="rId3"/>
     <sheet name="sample2_keyValues" sheetId="5" r:id="rId4"/>
+    <sheet name="sample2_laplaced" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="11" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="107">
   <si>
     <t xml:space="preserve"> Hot</t>
   </si>
@@ -508,7 +509,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Elian CARSENAT" refreshedDate="43805.746144560188" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="15" xr:uid="{CB5AF272-B8E2-4E13-9050-30EB8099F159}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="elian" refreshedDate="43806.427411226854" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="15" xr:uid="{CB5AF272-B8E2-4E13-9050-30EB8099F159}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -758,8 +759,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -810,6 +811,80 @@
     </i>
   </colItems>
   <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476D76E7-B827-4379-85D8-AF9D65C273AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
     <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -824,7 +899,577 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FD7D612-55A4-4052-8A3C-D1DA68AB7A3F}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7E2F67A-8542-4AF7-8624-9C9125E14C8E}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22ED947-C6F5-4442-A021-7FCD16A1CEE6}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BD64302-94A3-4101-A258-21641D66AF30}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F81060C-D6C8-4D2B-B2C0-241A3F1B9FDB}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7502606D-1444-47D9-9CB0-C85CA8F828FC}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9140B62D-D727-4069-91B5-99EB9F847ECD}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF603730-C23A-4196-9976-4AEF56A1F64D}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EAA06CD-DD99-410D-B21A-81CA5CA5E3C0}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73FCD2B1-4D62-4786-A92B-6A771F40503A}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -894,287 +1539,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7E2F67A-8542-4AF7-8624-9C9125E14C8E}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22ED947-C6F5-4442-A021-7FCD16A1CEE6}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BD64302-94A3-4101-A258-21641D66AF30}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F81060C-D6C8-4D2B-B2C0-241A3F1B9FDB}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FD7D612-55A4-4052-8A3C-D1DA68AB7A3F}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C58D87D4-9967-4436-AF07-0A16F6285BF2}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1241,198 +1607,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61A50E0-C108-4B58-A1A8-333579B6799B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD4D01A5-8B85-4036-BA6F-504E86F4E79C}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -1506,7 +1681,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57FC5204-20BF-4133-86B5-A9E318DA254F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -1563,6 +1738,135 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1647,6 +1951,68 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61A50E0-C108-4B58-A1A8-333579B6799B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C81B27A-3948-470C-9D29-F636E72728D4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -1685,80 +2051,6 @@
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476D76E7-B827-4379-85D8-AF9D65C273AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -1813,6 +2105,19 @@
     <tableColumn id="2" xr3:uid="{A24D88E3-F637-4930-A038-B6A7D015736D}" name="X2"/>
     <tableColumn id="3" xr3:uid="{0238BA58-EDFB-4B96-A175-E02702BE7FA0}" name="Y"/>
     <tableColumn id="4" xr3:uid="{F64136A6-A0B9-4C53-8B5B-1AE6A39FBE03}" name="Observation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F02B950E-888E-4E73-8105-EF0AE5EBD2FE}" name="Table14" displayName="Table14" ref="B2:E17" totalsRowShown="0">
+  <autoFilter ref="B2:E17" xr:uid="{2F4C98F1-BA66-43ED-BE3F-02969C04740E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{34FCD011-9EA6-4344-A68F-2877BE2B6DF8}" name="X1"/>
+    <tableColumn id="2" xr3:uid="{804DFFEF-ABD0-4A9E-9D14-535F389142FD}" name="X2"/>
+    <tableColumn id="3" xr3:uid="{947EC95C-8641-4532-BFD5-F6C948CA6691}" name="Y"/>
+    <tableColumn id="4" xr3:uid="{5CC117C6-E9F1-49EC-9A3D-DE8FA7836972}" name="Observation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2121,32 +2426,32 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.68359375" customWidth="1"/>
+    <col min="10" max="10" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.15625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.15625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.68359375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.26171875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -2166,7 +2471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -2186,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -2206,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -2226,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -2246,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -2266,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -2286,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2306,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -2326,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -2346,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -2366,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -2386,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -2406,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -2426,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -2446,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -2463,7 +2768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2495,7 +2800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2539,7 +2844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
@@ -2583,7 +2888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
@@ -2625,7 +2930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -2663,7 +2968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
@@ -2683,7 +2988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -2700,7 +3005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
@@ -2732,7 +3037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
@@ -2780,7 +3085,7 @@
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
@@ -2824,7 +3129,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
@@ -2868,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2906,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="2" t="s">
         <v>18</v>
       </c>
@@ -2926,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>23</v>
       </c>
@@ -2942,7 +3247,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -2958,7 +3263,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>25</v>
       </c>
@@ -2974,7 +3279,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>26</v>
       </c>
@@ -2990,7 +3295,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>27</v>
       </c>
@@ -3006,7 +3311,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C42">
         <f>C41*C40*C39*C38*C37</f>
         <v>5.2910052910052907E-3</v>
@@ -3016,7 +3321,7 @@
         <v>2.057142857142857E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>29</v>
       </c>
@@ -3025,7 +3330,7 @@
         <v>0.20458265139116202</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -3050,12 +3355,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -3063,7 +3368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3071,7 +3376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3079,7 +3384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -3087,7 +3392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -3095,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3103,7 +3408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3111,7 +3416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3119,7 +3424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -3127,7 +3432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3135,7 +3440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -3143,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3151,7 +3456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3159,7 +3464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3167,7 +3472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3175,7 +3480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3183,7 +3488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -3191,7 +3496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3199,7 +3504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -3207,7 +3512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3215,7 +3520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3223,7 +3528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3231,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3239,7 +3544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3247,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3255,7 +3560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3263,7 +3568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3271,7 +3576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3279,7 +3584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -3287,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3295,7 +3600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3315,27 +3620,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802F5690-627C-4814-9310-3A096A793A75}">
   <dimension ref="B2:U60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.62890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.62890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.05078125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>81</v>
       </c>
@@ -3349,7 +3654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>86</v>
       </c>
@@ -3363,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -3377,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -3391,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>86</v>
       </c>
@@ -3405,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>86</v>
       </c>
@@ -3419,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>87</v>
       </c>
@@ -3433,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -3447,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>87</v>
       </c>
@@ -3461,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -3475,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>87</v>
       </c>
@@ -3489,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -3503,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>84</v>
       </c>
@@ -3517,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -3531,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>84</v>
       </c>
@@ -3545,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -3559,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -3570,7 +3875,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -3590,7 +3895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -3629,7 +3934,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2" t="s">
         <v>86</v>
       </c>
@@ -3661,7 +3966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2" t="s">
         <v>87</v>
       </c>
@@ -3693,7 +3998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2" t="s">
         <v>84</v>
       </c>
@@ -3719,7 +4024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
@@ -3745,7 +4050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -3753,7 +4058,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -3767,7 +4072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
@@ -3805,7 +4110,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2" t="s">
         <v>86</v>
       </c>
@@ -3831,7 +4136,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2" t="s">
         <v>87</v>
       </c>
@@ -3857,7 +4162,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="2" t="s">
         <v>84</v>
       </c>
@@ -3883,7 +4188,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
@@ -3909,12 +4214,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>90</v>
       </c>
@@ -3931,7 +4236,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>91</v>
       </c>
@@ -3948,7 +4253,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
         <v>92</v>
       </c>
@@ -3965,7 +4270,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>93</v>
       </c>
@@ -3982,7 +4287,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>94</v>
       </c>
@@ -3999,7 +4304,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>95</v>
       </c>
@@ -4016,7 +4321,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>96</v>
       </c>
@@ -4033,7 +4338,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
         <v>97</v>
       </c>
@@ -4050,7 +4355,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
         <v>98</v>
       </c>
@@ -4067,7 +4372,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" t="s">
         <v>99</v>
       </c>
@@ -4084,7 +4389,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
         <v>100</v>
       </c>
@@ -4101,7 +4406,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" t="s">
         <v>101</v>
       </c>
@@ -4118,7 +4423,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
         <v>102</v>
       </c>
@@ -4135,7 +4440,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
         <v>103</v>
       </c>
@@ -4152,7 +4457,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
         <v>105</v>
       </c>
@@ -4169,7 +4474,7 @@
         <v>2.222222222222222E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" t="s">
         <v>106</v>
       </c>
@@ -4198,14 +4503,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BF1854-CF86-41E9-BE59-82E148202192}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -4213,7 +4520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4221,7 +4528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -4229,7 +4536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -4237,7 +4544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -4245,7 +4552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -4253,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -4261,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -4269,7 +4576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -4277,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -4285,7 +4592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -4293,7 +4600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -4301,7 +4608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -4309,7 +4616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -4317,7 +4624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -4325,7 +4632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -4333,7 +4640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -4341,7 +4648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -4349,7 +4656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -4357,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -4368,4 +4675,868 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CE043-4993-4B3B-A816-B9D47EB79866}">
+  <dimension ref="B2:M60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.62890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.62890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.05078125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6</v>
+      </c>
+      <c r="I26" s="3">
+        <v>9</v>
+      </c>
+      <c r="J26" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39">
+        <f>GETPIVOTDATA("Observation",$L$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <f>GETPIVOTDATA("Observation",$L$21)</f>
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <f>C39/D39</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40">
+        <f>GETPIVOTDATA("Observation",$L$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <f>GETPIVOTDATA("Observation",$L$21)</f>
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <f>C40/D40</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","B","Y",1)</f>
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <f>C42/D42</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","A","Y",1)</f>
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <f>C43/D43</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","C","Y",1)</f>
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <f>C44/D44</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","S","Y",1)</f>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <f>C46/D46</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","M","Y",1)</f>
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <f>C47/D47</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","L","Y",1)</f>
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)</f>
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <f>C48/D48</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","B","Y",0)</f>
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <f>C51/D51</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","A","Y",0)</f>
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <f>C52/D52</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","C","Y",0)</f>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <f>C53/D53</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","S","Y",0)</f>
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <f>C55/D55</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","M","Y",0)</f>
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <f>C56/D56</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","L","Y",0)</f>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)</f>
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <f>C57/D57</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59">
+        <f>C39*C42*C46</f>
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <f>D39*D42*D46</f>
+        <v>1215</v>
+      </c>
+      <c r="E59">
+        <f>E39*E42*E46</f>
+        <v>2.222222222222222E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60">
+        <f>C40*C51*C55</f>
+        <v>36</v>
+      </c>
+      <c r="D60">
+        <f>D40*D51*D55</f>
+        <v>540</v>
+      </c>
+      <c r="E60">
+        <f>E40*E51*E55</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/doc/naive_bayes_sample_excel.xlsx
+++ b/doc/naive_bayes_sample_excel.xlsx
@@ -2,27 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Java-Naive-Bayes-Classifier-JNBC\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Java-Naive-Bayes-Classifier-JNBC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA7122-7EF3-4FBF-90DC-A5BD926DFA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C828F0-5B4A-480C-A32A-4EE3F6A11858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="3" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="1" r:id="rId1"/>
     <sheet name="sample1_keyValues" sheetId="3" r:id="rId2"/>
-    <sheet name="sample2" sheetId="4" r:id="rId3"/>
-    <sheet name="sample2_keyValues" sheetId="5" r:id="rId4"/>
-    <sheet name="sample2_laplaced" sheetId="6" r:id="rId5"/>
+    <sheet name="sample1_laplaced" sheetId="8" r:id="rId3"/>
+    <sheet name="sample1Laplaced_keyValues" sheetId="9" r:id="rId4"/>
+    <sheet name="sample2" sheetId="4" r:id="rId5"/>
+    <sheet name="sample2_keyValues" sheetId="5" r:id="rId6"/>
+    <sheet name="sample2_laplaced" sheetId="6" r:id="rId7"/>
+    <sheet name="sample2_keyValuesL" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="11" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="138">
   <si>
     <t xml:space="preserve"> Hot</t>
   </si>
@@ -360,12 +363,109 @@
   </si>
   <si>
     <t>ProductP1</t>
+  </si>
+  <si>
+    <t>~gL.count</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Play=Yes</t>
+  </si>
+  <si>
+    <t>Play=No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "outlook=overcast";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "outlook=Overcast";</t>
+  </si>
+  <si>
+    <t>~gL//~fE//outlook=Rain</t>
+  </si>
+  <si>
+    <t>~gL//~fE//outlook=Overcast</t>
+  </si>
+  <si>
+    <t>~gL//~fE//humidity=High</t>
+  </si>
+  <si>
+    <t>~gL//~fE//temp=Hot</t>
+  </si>
+  <si>
+    <t>~gL//~fE//wind=Weak</t>
+  </si>
+  <si>
+    <t>~gL//~fE//humidity=Normal</t>
+  </si>
+  <si>
+    <t>~gL//~fE//temp=Mild</t>
+  </si>
+  <si>
+    <t>~gL//~fE//temp.count</t>
+  </si>
+  <si>
+    <t>~gL//~fE//temp=Cool</t>
+  </si>
+  <si>
+    <t>~gL//~fE//outlook.count</t>
+  </si>
+  <si>
+    <t>~gL//~fE//wind.count</t>
+  </si>
+  <si>
+    <t>~gL//~fE//wind=Strong</t>
+  </si>
+  <si>
+    <t>~gL//~fE//humidity.count</t>
+  </si>
+  <si>
+    <t>~gL//~fE//outlook=Sunny</t>
+  </si>
+  <si>
+    <t>~gL//~fE//X1=C</t>
+  </si>
+  <si>
+    <t>~gL//~fE//X1=B</t>
+  </si>
+  <si>
+    <t>~gL//~fE//X1=A</t>
+  </si>
+  <si>
+    <t>~gL//~fE//X2.count</t>
+  </si>
+  <si>
+    <t>~gL//~fE//X2=S</t>
+  </si>
+  <si>
+    <t>~gL//~fE//X2=M</t>
+  </si>
+  <si>
+    <t>~gL//~fE//X1.count</t>
+  </si>
+  <si>
+    <t>~gL//~fE//X2=L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,11 +526,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -440,8 +541,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -759,7 +863,493 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57FC5204-20BF-4133-86B5-A9E318DA254F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C81B27A-3948-470C-9D29-F636E72728D4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AEAFA69-ED44-492F-954A-EC870EAAC390}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F77E175A-8D61-414C-80B4-55CAF5EF1662}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7377CCE0-6486-4D26-A772-3EC0FA7A1B67}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C191547-023A-4450-B480-D3440E7390E4}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{638DB6E6-5B4D-45F7-8A8A-1DAD24D54DB0}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F8D8C1C-3D4B-4E3E-9BB6-631303303054}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -825,7 +1415,210 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64F9299C-C3B7-4571-A751-90AFB2CB48A5}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D533B6E1-FF8D-4AA1-A7D5-D721D65A2BD8}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2762BB30-B462-461F-B78D-B365DEB0BBE5}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476D76E7-B827-4379-85D8-AF9D65C273AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -899,8 +1692,146 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FD7D612-55A4-4052-8A3C-D1DA68AB7A3F}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AF659C0-F0C8-4D92-9B90-C6B98663ED3E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F81060C-D6C8-4D2B-B2C0-241A3F1B9FDB}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FD7D612-55A4-4052-8A3C-D1DA68AB7A3F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -967,8 +1898,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7E2F67A-8542-4AF7-8624-9C9125E14C8E}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7E2F67A-8542-4AF7-8624-9C9125E14C8E}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -1014,8 +1945,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22ED947-C6F5-4442-A021-7FCD16A1CEE6}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22ED947-C6F5-4442-A021-7FCD16A1CEE6}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1082,8 +2013,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BD64302-94A3-4101-A258-21641D66AF30}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BD64302-94A3-4101-A258-21641D66AF30}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -1150,8 +2081,191 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F81060C-D6C8-4D2B-B2C0-241A3F1B9FDB}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF603730-C23A-4196-9976-4AEF56A1F64D}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EAA06CD-DD99-410D-B21A-81CA5CA5E3C0}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C58D87D4-9967-4436-AF07-0A16F6285BF2}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7502606D-1444-47D9-9CB0-C85CA8F828FC}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -1218,30 +2332,32 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7502606D-1444-47D9-9CB0-C85CA8F828FC}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -1258,21 +2374,18 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="2"/>
+    <field x="4"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1286,8 +2399,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9140B62D-D727-4069-91B5-99EB9F847ECD}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9140B62D-D727-4069-91B5-99EB9F847ECD}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -1354,11 +2467,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF603730-C23A-4196-9976-4AEF56A1F64D}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -1367,48 +2480,42 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="4"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i>
-      <x v="2"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1422,40 +2529,60 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EAA06CD-DD99-410D-B21A-81CA5CA5E3C0}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
       <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
+    <i>
+      <x v="2"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1469,7 +2596,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73FCD2B1-4D62-4786-A92B-6A771F40503A}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -1523,347 +2650,6 @@
     <i>
       <x v="1"/>
     </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C58D87D4-9967-4436-AF07-0A16F6285BF2}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD4D01A5-8B85-4036-BA6F-504E86F4E79C}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57FC5204-20BF-4133-86B5-A9E318DA254F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
@@ -1951,6 +2737,80 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD4D01A5-8B85-4036-BA6F-504E86F4E79C}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61A50E0-C108-4B58-A1A8-333579B6799B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -2012,76 +2872,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C81B27A-3948-470C-9D29-F636E72728D4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBBEC0D5-89B3-44B0-9521-95362053ACF9}" name="Table2" displayName="Table2" ref="B3:G17" totalsRowShown="0">
   <autoFilter ref="B3:G17" xr:uid="{C09AC539-A3F3-44D6-84B8-B7F538F82AE2}"/>
@@ -2098,6 +2888,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3B035E47-9DE9-4035-8AEE-7E0C2AE91024}" name="Table25" displayName="Table25" ref="B3:G17" totalsRowShown="0">
+  <autoFilter ref="B3:G17" xr:uid="{C09AC539-A3F3-44D6-84B8-B7F538F82AE2}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{075E61B1-844D-4957-ABF4-108ECFD44C88}" name="outlook"/>
+    <tableColumn id="2" xr3:uid="{38333A89-D89E-4A98-B60A-F19C46E96B38}" name=" temp"/>
+    <tableColumn id="3" xr3:uid="{0B2AA35C-888E-4496-ABEE-528CF2687798}" name="humidity"/>
+    <tableColumn id="4" xr3:uid="{B93B2899-C904-4EC9-BA94-AEA5356EE316}" name="wind"/>
+    <tableColumn id="5" xr3:uid="{916E2B48-61B8-46C2-BDAA-25762D0AC498}" name="play"/>
+    <tableColumn id="6" xr3:uid="{1648A97E-41B7-4AD3-93C7-DFA91FB9F49D}" name="Observation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0784FF48-3527-4921-AC4E-A46AFB051B91}" name="Table1" displayName="Table1" ref="B2:E17" totalsRowShown="0">
   <autoFilter ref="B2:E17" xr:uid="{2F4C98F1-BA66-43ED-BE3F-02969C04740E}"/>
   <tableColumns count="4">
@@ -2110,7 +2915,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F02B950E-888E-4E73-8105-EF0AE5EBD2FE}" name="Table14" displayName="Table14" ref="B2:E17" totalsRowShown="0">
   <autoFilter ref="B2:E17" xr:uid="{2F4C98F1-BA66-43ED-BE3F-02969C04740E}"/>
   <tableColumns count="4">
@@ -2422,36 +3227,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F7E3E5-899C-4353-956B-BB8004DB9709}">
   <dimension ref="B3:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:H32"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" max="4" activeRow="31" activeCol="5" previousRow="31" previousCol="5" click="1" r:id="rId8">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="1" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.68359375" customWidth="1"/>
-    <col min="10" max="10" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -2471,7 +3285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -2491,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -2531,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -2551,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -2571,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -2591,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2611,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -2631,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -2651,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -2671,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -2691,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -2711,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -2731,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -2751,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +3582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2800,7 +3614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2844,7 +3658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +3702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
@@ -2930,7 +3744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -2968,7 +3782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
@@ -2988,7 +3802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -3005,7 +3819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
@@ -3037,7 +3851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
@@ -3085,7 +3899,7 @@
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
@@ -3129,7 +3943,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
@@ -3173,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -3211,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>18</v>
       </c>
@@ -3231,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>23</v>
       </c>
@@ -3247,7 +4061,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -3263,7 +4077,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>25</v>
       </c>
@@ -3279,7 +4093,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>26</v>
       </c>
@@ -3295,7 +4109,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>27</v>
       </c>
@@ -3311,7 +4125,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C42">
         <f>C41*C40*C39*C38*C37</f>
         <v>5.2910052910052907E-3</v>
@@ -3321,7 +4135,7 @@
         <v>2.057142857142857E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>29</v>
       </c>
@@ -3330,7 +4144,7 @@
         <v>0.20458265139116202</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -3355,12 +4169,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -3368,7 +4182,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3376,7 +4190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3384,7 +4198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -3392,7 +4206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -3400,7 +4214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3408,7 +4222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3416,7 +4230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3424,7 +4238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -3432,7 +4246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3440,7 +4254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -3448,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3456,7 +4270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3464,7 +4278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3472,7 +4286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3480,7 +4294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3488,7 +4302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -3496,7 +4310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3504,7 +4318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -3512,7 +4326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3520,7 +4334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3528,7 +4342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3536,7 +4350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3544,7 +4358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3552,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3560,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3568,7 +4382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3576,7 +4390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3584,7 +4398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -3592,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3600,7 +4414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3617,30 +4431,1363 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802F5690-627C-4814-9310-3A096A793A75}">
-  <dimension ref="B2:U60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3E607-0823-40E0-B341-64CA7A50C642}">
+  <dimension ref="B3:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.62890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.62890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.83984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
+        <v>4</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3">
+        <v>6</v>
+      </c>
+      <c r="P23" s="3">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="3">
+        <v>9</v>
+      </c>
+      <c r="L25" s="3">
+        <v>5</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="3">
+        <v>9</v>
+      </c>
+      <c r="P25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="3">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" t="s">
+        <v>19</v>
+      </c>
+      <c r="S30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" t="s">
+        <v>10</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="7">
+        <f>(GETPIVOTDATA("Observation",$B$21,"outlook","        Overcast","play"," Yes")+1)/(GETPIVOTDATA("Observation",$B$21,"play"," Yes")+3)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="7">
+        <f>(GETPIVOTDATA("Observation",$B$21,"outlook","        Overcast","play"," No")+1)/(GETPIVOTDATA("Observation",$B$21,"play"," No")+3)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="7">
+        <f>(GETPIVOTDATA("Observation",$F$21," temp"," Cool","play"," Yes")+1)/(GETPIVOTDATA("Observation",$F$21,"play"," Yes")+3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="7">
+        <f>(GETPIVOTDATA("Observation",$F$21," temp"," Cool","play"," No")+1)/(GETPIVOTDATA("Observation",$F$21,"play"," No")+3)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="7">
+        <f>(GETPIVOTDATA("Observation",$J$21,"humidity"," High","play"," Yes")+1)/(GETPIVOTDATA("Observation",$J$21,"play"," Yes")+2)</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="7">
+        <f>(GETPIVOTDATA("Observation",$J$21,"humidity"," High","play"," No")+1)/(GETPIVOTDATA("Observation",$J$21,"play"," No")+2)</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="7">
+        <f>(GETPIVOTDATA("Observation",$N$21,"wind"," Strong","play"," Yes")+1)/(GETPIVOTDATA("Observation",$N$21,"play"," Yes")+2)</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="7">
+        <f>(GETPIVOTDATA("Observation",$N$21,"wind"," Strong","play"," No")+1)/(GETPIVOTDATA("Observation",$N$21,"play"," No")+2)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="7">
+        <f>GETPIVOTDATA("Observation",$R$30,"play"," Yes")</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D41">
+        <f>(GETPIVOTDATA("Observation",$R$21,"play"," Yes")+1)/(GETPIVOTDATA("Observation",$R$21)+2)</f>
+        <v>0.625</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="7">
+        <f>GETPIVOTDATA("Observation",$R$30,"play"," No")</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="H41">
+        <f>(GETPIVOTDATA("Observation",$R$21,"play"," No")+1)/(GETPIVOTDATA("Observation",$R$21)+2)</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C42" s="8">
+        <f>C41*C40*C39*C38*C37</f>
+        <v>1.1806375442739079E-2</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8">
+        <f>G41*G40*G39*G38*G37</f>
+        <v>4.5553935860058311E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="5">
+        <f>C42/(C42+G42)</f>
+        <v>0.72158306488725255</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="5">
+        <f>G42/(G42+C42)</f>
+        <v>0.27841693511274734</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId11"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0944F616-6813-4E36-9E20-2F69B9F8EA74}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B46">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802F5690-627C-4814-9310-3A096A793A75}">
+  <dimension ref="B2:U63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:E63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>81</v>
       </c>
@@ -3654,7 +5801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>86</v>
       </c>
@@ -3668,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -3682,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -3696,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>86</v>
       </c>
@@ -3710,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>86</v>
       </c>
@@ -3724,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>87</v>
       </c>
@@ -3738,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -3752,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>87</v>
       </c>
@@ -3766,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -3780,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>87</v>
       </c>
@@ -3794,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -3808,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>84</v>
       </c>
@@ -3822,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -3836,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>84</v>
       </c>
@@ -3850,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -3864,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -3875,7 +6022,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -3895,7 +6042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -3934,7 +6081,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>86</v>
       </c>
@@ -3966,7 +6113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>87</v>
       </c>
@@ -3998,7 +6145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>84</v>
       </c>
@@ -4024,7 +6171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
@@ -4050,7 +6197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -4058,7 +6205,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -4072,7 +6219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
@@ -4110,7 +6257,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>86</v>
       </c>
@@ -4136,7 +6283,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>87</v>
       </c>
@@ -4162,7 +6309,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>84</v>
       </c>
@@ -4188,7 +6335,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
@@ -4214,12 +6361,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>90</v>
       </c>
@@ -4236,7 +6383,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>91</v>
       </c>
@@ -4253,7 +6400,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>92</v>
       </c>
@@ -4270,7 +6417,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>93</v>
       </c>
@@ -4287,7 +6434,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>94</v>
       </c>
@@ -4304,7 +6451,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>95</v>
       </c>
@@ -4321,7 +6468,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>96</v>
       </c>
@@ -4338,7 +6485,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>97</v>
       </c>
@@ -4355,7 +6502,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>98</v>
       </c>
@@ -4372,7 +6519,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>99</v>
       </c>
@@ -4389,7 +6536,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>100</v>
       </c>
@@ -4406,7 +6553,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>101</v>
       </c>
@@ -4423,7 +6570,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>102</v>
       </c>
@@ -4440,7 +6587,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>103</v>
       </c>
@@ -4457,7 +6604,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>105</v>
       </c>
@@ -4474,7 +6621,7 @@
         <v>2.222222222222222E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>106</v>
       </c>
@@ -4489,6 +6636,1085 @@
       <c r="E60">
         <f>E40*E51*E55</f>
         <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62">
+        <f>(E59/(E59+E60))</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63">
+        <f>E60/(E60+E59)</f>
+        <v>0.75000000000000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BF1854-CF86-41E9-BE59-82E148202192}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CE043-4993-4B3B-A816-B9D47EB79866}">
+  <dimension ref="B2:M63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6</v>
+      </c>
+      <c r="I26" s="3">
+        <v>9</v>
+      </c>
+      <c r="J26" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39">
+        <f>GETPIVOTDATA("Observation",$L$21,"Y",1)+1</f>
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <f>GETPIVOTDATA("Observation",$L$21)+COUNT(L22:L23)</f>
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <f>C39/D39</f>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40">
+        <f>GETPIVOTDATA("Observation",$L$21,"Y",0)+1</f>
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <f>GETPIVOTDATA("Observation",$L$21)+COUNT(L22:L23)</f>
+        <v>17</v>
+      </c>
+      <c r="E40">
+        <f>C40/D40</f>
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","B","Y",1)+1</f>
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)+COUNT(C23:C25)</f>
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <f>C42/D42</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","A","Y",1)+1</f>
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)+COUNT(C23:C25)</f>
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <f>C43/D43</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","C","Y",1)+1</f>
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)+COUNT(C23:C25)</f>
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <f>C44/D44</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","S","Y",1)+1</f>
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)+COUNT(H23:H25)</f>
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <f>C46/D46</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","M","Y",1)+1</f>
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)+COUNT(H23:H25)</f>
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <f>C47/D47</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","L","Y",1)+1</f>
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)+COUNT(H23:H25)</f>
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <f>C48/D48</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","B","Y",0)+1</f>
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)+COUNT(C23:C25)</f>
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <f>C51/D51</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","A","Y",0)+1</f>
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)+COUNT(C23:C25)</f>
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <f>C52/D52</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <f>GETPIVOTDATA("Observation",$B$21,"X1","C","Y",0)+1</f>
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)+COUNT(C23:C25)</f>
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <f>C53/D53</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","S","Y",0)+1</f>
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)+COUNT(H23:H25)</f>
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <f>C55/D55</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","M","Y",0)+1</f>
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)+COUNT(H23:H25)</f>
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <f>C56/D56</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57">
+        <f>GETPIVOTDATA("Observation",$G$21,"X2","L","Y",0)+1</f>
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)+COUNT(H23:H25)</f>
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <f>C57/D57</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59">
+        <f>C39*C42*C46</f>
+        <v>80</v>
+      </c>
+      <c r="D59">
+        <f>D39*D42*D46</f>
+        <v>2448</v>
+      </c>
+      <c r="E59">
+        <f>E39*E42*E46</f>
+        <v>3.2679738562091498E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60">
+        <f>C40*C51*C55</f>
+        <v>84</v>
+      </c>
+      <c r="D60">
+        <f>D40*D51*D55</f>
+        <v>1377</v>
+      </c>
+      <c r="E60">
+        <f>E40*E51*E55</f>
+        <v>6.100217864923746E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62">
+        <f>(E59/(E59+E60))</f>
+        <v>0.34883720930232559</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63">
+        <f>E60/(E60+E59)</f>
+        <v>0.65116279069767435</v>
       </c>
     </row>
   </sheetData>
@@ -4499,28 +7725,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BF1854-CF86-41E9-BE59-82E148202192}">
-  <dimension ref="A1:B20"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087EC54C-DD7D-4557-8207-24F8ECC26FA3}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4528,1015 +7754,226 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>68</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>74</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>63</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>71</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>76</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>66</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>70</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>79</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>78</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>80</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>69</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>77</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>75</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
+    <sortCondition ref="A7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CE043-4993-4B3B-A816-B9D47EB79866}">
-  <dimension ref="B2:M60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="16.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.62890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.62890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.83984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.26171875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3">
-        <v>5</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
-        <v>6</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="3">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3">
-        <v>15</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="3">
-        <v>6</v>
-      </c>
-      <c r="I26" s="3">
-        <v>9</v>
-      </c>
-      <c r="J26" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0.26666666666666666</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1</v>
-      </c>
-      <c r="J36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39">
-        <f>GETPIVOTDATA("Observation",$L$21,"Y",1)</f>
-        <v>9</v>
-      </c>
-      <c r="D39">
-        <f>GETPIVOTDATA("Observation",$L$21)</f>
-        <v>15</v>
-      </c>
-      <c r="E39">
-        <f>C39/D39</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40">
-        <f>GETPIVOTDATA("Observation",$L$21,"Y",0)</f>
-        <v>6</v>
-      </c>
-      <c r="D40">
-        <f>GETPIVOTDATA("Observation",$L$21)</f>
-        <v>15</v>
-      </c>
-      <c r="E40">
-        <f>C40/D40</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42">
-        <f>GETPIVOTDATA("Observation",$B$21,"X1","B","Y",1)</f>
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)</f>
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <f>C42/D42</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43">
-        <f>GETPIVOTDATA("Observation",$B$21,"X1","A","Y",1)</f>
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)</f>
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <f>C43/D43</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44">
-        <f>GETPIVOTDATA("Observation",$B$21,"X1","C","Y",1)</f>
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <f>GETPIVOTDATA("Observation",$B$21,"Y",1)</f>
-        <v>9</v>
-      </c>
-      <c r="E44">
-        <f>C44/D44</f>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46">
-        <f>GETPIVOTDATA("Observation",$G$21,"X2","S","Y",1)</f>
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)</f>
-        <v>9</v>
-      </c>
-      <c r="E46">
-        <f>C46/D46</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47">
-        <f>GETPIVOTDATA("Observation",$G$21,"X2","M","Y",1)</f>
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)</f>
-        <v>9</v>
-      </c>
-      <c r="E47">
-        <f>C47/D47</f>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48">
-        <f>GETPIVOTDATA("Observation",$G$21,"X2","L","Y",1)</f>
-        <v>4</v>
-      </c>
-      <c r="D48">
-        <f>GETPIVOTDATA("Observation",$G$21,"Y",1)</f>
-        <v>9</v>
-      </c>
-      <c r="E48">
-        <f>C48/D48</f>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51">
-        <f>GETPIVOTDATA("Observation",$B$21,"X1","B","Y",0)</f>
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)</f>
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <f>C51/D51</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52">
-        <f>GETPIVOTDATA("Observation",$B$21,"X1","A","Y",0)</f>
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)</f>
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <f>C52/D52</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53">
-        <f>GETPIVOTDATA("Observation",$B$21,"X1","C","Y",0)</f>
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <f>GETPIVOTDATA("Observation",$B$21,"Y",0)</f>
-        <v>6</v>
-      </c>
-      <c r="E53">
-        <f>C53/D53</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55">
-        <f>GETPIVOTDATA("Observation",$G$21,"X2","S","Y",0)</f>
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)</f>
-        <v>6</v>
-      </c>
-      <c r="E55">
-        <f>C55/D55</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56">
-        <f>GETPIVOTDATA("Observation",$G$21,"X2","M","Y",0)</f>
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)</f>
-        <v>6</v>
-      </c>
-      <c r="E56">
-        <f>C56/D56</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57">
-        <f>GETPIVOTDATA("Observation",$G$21,"X2","L","Y",0)</f>
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <f>GETPIVOTDATA("Observation",$G$21,"Y",0)</f>
-        <v>6</v>
-      </c>
-      <c r="E57">
-        <f>C57/D57</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59">
-        <f>C39*C42*C46</f>
-        <v>27</v>
-      </c>
-      <c r="D59">
-        <f>D39*D42*D46</f>
-        <v>1215</v>
-      </c>
-      <c r="E59">
-        <f>E39*E42*E46</f>
-        <v>2.222222222222222E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60">
-        <f>C40*C51*C55</f>
-        <v>36</v>
-      </c>
-      <c r="D60">
-        <f>D40*D51*D55</f>
-        <v>540</v>
-      </c>
-      <c r="E60">
-        <f>E40*E51*E55</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/doc/naive_bayes_sample_excel.xlsx
+++ b/doc/naive_bayes_sample_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Java-Naive-Bayes-Classifier-JNBC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C828F0-5B4A-480C-A32A-4EE3F6A11858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832669BD-F5D8-4F1F-9A42-69A4909F5779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="140">
   <si>
     <t xml:space="preserve"> Hot</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>~gL//~fE//X2=L</t>
+  </si>
+  <si>
+    <t>key (path)</t>
+  </si>
+  <si>
+    <t>value (counter)</t>
   </si>
 </sst>
 </file>
@@ -464,9 +470,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +491,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -531,7 +545,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -542,7 +556,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -863,8 +878,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57FC5204-20BF-4133-86B5-A9E318DA254F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
       <items count="4">
@@ -876,14 +891,14 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
@@ -893,7 +908,7 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="3"/>
+    <field x="4"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -906,19 +921,11 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -933,8 +940,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C81B27A-3948-470C-9D29-F636E72728D4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61A50E0-C108-4B58-A1A8-333579B6799B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
       <items count="4">
@@ -945,15 +952,15 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
@@ -963,7 +970,7 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="4"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -976,16 +983,8 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
@@ -1003,6 +1002,73 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F8D8C1C-3D4B-4E3E-9BB6-631303303054}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AEAFA69-ED44-492F-954A-EC870EAAC390}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -1072,7 +1138,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F77E175A-8D61-414C-80B4-55CAF5EF1662}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -1134,7 +1200,69 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64F9299C-C3B7-4571-A751-90AFB2CB48A5}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7377CCE0-6486-4D26-A772-3EC0FA7A1B67}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -1208,276 +1336,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C191547-023A-4450-B480-D3440E7390E4}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{638DB6E6-5B4D-45F7-8A8A-1DAD24D54DB0}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F8D8C1C-3D4B-4E3E-9BB6-631303303054}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64F9299C-C3B7-4571-A751-90AFB2CB48A5}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D533B6E1-FF8D-4AA1-A7D5-D721D65A2BD8}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -1544,7 +1403,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2762BB30-B462-461F-B78D-B365DEB0BBE5}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -1618,9 +1477,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476D76E7-B827-4379-85D8-AF9D65C273AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C191547-023A-4450-B480-D3440E7390E4}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
       <items count="4">
@@ -1630,15 +1489,14 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
@@ -1650,17 +1508,14 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -1678,7 +1533,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1692,7 +1547,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AF659C0-F0C8-4D92-9B90-C6B98663ED3E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -1762,7 +1617,330 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C81B27A-3948-470C-9D29-F636E72728D4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{638DB6E6-5B4D-45F7-8A8A-1DAD24D54DB0}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7E2F67A-8542-4AF7-8624-9C9125E14C8E}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22ED947-C6F5-4442-A021-7FCD16A1CEE6}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BD64302-94A3-4101-A258-21641D66AF30}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F81060C-D6C8-4D2B-B2C0-241A3F1B9FDB}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -1830,7 +2008,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FD7D612-55A4-4052-8A3C-D1DA68AB7A3F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -1885,189 +2063,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7E2F67A-8542-4AF7-8624-9C9125E14C8E}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22ED947-C6F5-4442-A021-7FCD16A1CEE6}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BD64302-94A3-4101-A258-21641D66AF30}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2333,8 +2328,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -2385,7 +2380,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2468,135 +2463,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73FCD2B1-4D62-4786-A92B-6A771F40503A}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -2653,6 +2519,150 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57FC5204-20BF-4133-86B5-A9E318DA254F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476D76E7-B827-4379-85D8-AF9D65C273AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2737,6 +2747,73 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD4D01A5-8B85-4036-BA6F-504E86F4E79C}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -2797,68 +2874,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61A50E0-C108-4B58-A1A8-333579B6799B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3229,7 +3244,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32:H32"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" max="4" activeRow="31" activeCol="5" previousRow="31" previousCol="5" click="1" r:id="rId8">
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" max="4" activeRow="31" activeCol="5" previousRow="31" previousCol="5" click="1" r:id="rId9">
         <pivotArea dataOnly="0" fieldPosition="0">
           <references count="1">
             <reference field="1" count="1">
@@ -4165,21 +4180,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B647E678-FD78-45CC-8F6B-B4C05C2A08A6}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
+      <c r="A1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4427,6 +4443,7 @@
     <sortCondition descending="1" ref="A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7729,7 +7746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087EC54C-DD7D-4557-8207-24F8ECC26FA3}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/doc/naive_bayes_sample_excel.xlsx
+++ b/doc/naive_bayes_sample_excel.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Java-Naive-Bayes-Classifier-JNBC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832669BD-F5D8-4F1F-9A42-69A4909F5779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9EE5D9-EC39-4CE7-9DCA-2D026D1DED53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="677" firstSheet="2" activeTab="8" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,14 @@
     <sheet name="sample2_keyValues" sheetId="5" r:id="rId6"/>
     <sheet name="sample2_laplaced" sheetId="6" r:id="rId7"/>
     <sheet name="sample2_keyValuesL" sheetId="7" r:id="rId8"/>
+    <sheet name="sample3" sheetId="10" r:id="rId9"/>
+    <sheet name="Sample3_keyValues" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="158" r:id="rId11"/>
+    <pivotCache cacheId="159" r:id="rId12"/>
+    <pivotCache cacheId="165" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="182">
   <si>
     <t xml:space="preserve"> Hot</t>
   </si>
@@ -462,6 +465,132 @@
   </si>
   <si>
     <t>value (counter)</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Sum of Weight</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Other</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Other//~fE//Yellow=Yes</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Other//~fE//Yellow=No</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Other//~fE//Yellow</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Other//~fE//Sweet=Yes</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Other//~fE//Sweet</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Other//~fE//Long=Yes</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Other//~fE//Long=No</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Other//~fE//Long</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Orange</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Orange//~fE//Yellow=Yes</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Orange//~fE//Yellow</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Orange//~fE//Sweet=Yes</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Orange//~fE//Sweet=No</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Orange//~fE//Sweet</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Orange//~fE//Long=No</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Orange//~fE//Long</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Banana</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Banana//~fE//Yellow=Yes</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Banana//~fE//Yellow=No</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Banana//~fE//Yellow</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Banana//~fE//Sweet=No</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Banana//~fE//Sweet</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Banana//~fE//Long=Yes</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Banana//~fE//Long=No</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Banana//~fE//Long</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Other//~fE//Sweet=No</t>
+  </si>
+  <si>
+    <t>~gL//~cA//Banana//~fE//Sweet=Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pbanana = </t>
+  </si>
+  <si>
+    <t>Porange=</t>
+  </si>
+  <si>
+    <t>Pother=</t>
   </si>
 </sst>
 </file>
@@ -655,6 +784,53 @@
     </cacheField>
     <cacheField name="Observation" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Elian CARSENAT" refreshedDate="43816.497476736113" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="14" xr:uid="{B27EF5E8-0B33-4642-A774-4D17DC6C47E8}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E1048576" sheet="sample3"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Fruit" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Banana"/>
+        <s v="Orange"/>
+        <s v="Other"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Long" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Yes"/>
+        <s v="No"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sweet" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Yes"/>
+        <s v="No"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Yellow" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Yes"/>
+        <s v="No"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Weight" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="50" maxValue="350"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -877,8 +1053,728 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB0E24CD-68CB-4B56-A9D6-3F54AF1D1897}" name="PivotTable9" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D533B6E1-FF8D-4AA1-A7D5-D721D65A2BD8}" name="PivotTable2" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F8D8C1C-3D4B-4E3E-9BB6-631303303054}" name="PivotTable11" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AEAFA69-ED44-492F-954A-EC870EAAC390}" name="PivotTable4" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2762BB30-B462-461F-B78D-B365DEB0BBE5}" name="PivotTable3" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F77E175A-8D61-414C-80B4-55CAF5EF1662}" name="PivotTable6" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C191547-023A-4450-B480-D3440E7390E4}" name="PivotTable9" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AF659C0-F0C8-4D92-9B90-C6B98663ED3E}" name="PivotTable5" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64F9299C-C3B7-4571-A751-90AFB2CB48A5}" name="PivotTable7" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -939,9 +1835,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61A50E0-C108-4B58-A1A8-333579B6799B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{638DB6E6-5B4D-45F7-8A8A-1DAD24D54DB0}" name="PivotTable8" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
       <items count="4">
@@ -953,14 +1849,14 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
@@ -970,7 +1866,7 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="3"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -983,11 +1879,19 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1001,9 +1905,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F8D8C1C-3D4B-4E3E-9BB6-631303303054}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -1054,76 +1958,6 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AEAFA69-ED44-492F-954A-EC870EAAC390}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
     <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -1138,132 +1972,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F77E175A-8D61-414C-80B4-55CAF5EF1662}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64F9299C-C3B7-4571-A751-90AFB2CB48A5}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7377CCE0-6486-4D26-A772-3EC0FA7A1B67}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7377CCE0-6486-4D26-A772-3EC0FA7A1B67}" name="PivotTable10" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -1336,10 +2046,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D533B6E1-FF8D-4AA1-A7D5-D721D65A2BD8}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
+<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FD7D612-55A4-4052-8A3C-D1DA68AB7A3F}" name="PivotTable1" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="0"/>
@@ -1349,6 +2059,583 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7E2F67A-8542-4AF7-8624-9C9125E14C8E}" name="PivotTable5" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22ED947-C6F5-4442-A021-7FCD16A1CEE6}" name="PivotTable4" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BD64302-94A3-4101-A258-21641D66AF30}" name="PivotTable3" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F81060C-D6C8-4D2B-B2C0-241A3F1B9FDB}" name="PivotTable2" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EAA06CD-DD99-410D-B21A-81CA5CA5E3C0}" name="PivotTable5" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C58D87D4-9967-4436-AF07-0A16F6285BF2}" name="PivotTable1" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7502606D-1444-47D9-9CB0-C85CA8F828FC}" name="PivotTable2" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9140B62D-D727-4069-91B5-99EB9F847ECD}" name="PivotTable3" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD4D01A5-8B85-4036-BA6F-504E86F4E79C}" name="PivotTable10" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
@@ -1361,7 +2648,7 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -1387,6 +2674,440 @@
     <i>
       <x v="1"/>
     </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF603730-C23A-4196-9976-4AEF56A1F64D}" name="PivotTable4" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E91DAC7-3F81-433A-8F78-6DCA3F09ACF6}" name="PivotTable10" cacheId="165" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Q3:T8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Weight" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F5FB8D8-31F3-4AD3-985A-F8CA89BC4B79}" name="PivotTable9" cacheId="165" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L3:O8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Weight" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{845B5AEF-F785-4AF3-B4C3-CFBD54EDB801}" name="PivotTable8" cacheId="165" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Weight" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73FCD2B1-4D62-4786-A92B-6A771F40503A}" name="PivotTable8" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61A50E0-C108-4B58-A1A8-333579B6799B}" name="PivotTable6" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
@@ -1403,8 +3124,78 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2762BB30-B462-461F-B78D-B365DEB0BBE5}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57FC5204-20BF-4133-86B5-A9E318DA254F}" name="PivotTable5" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476D76E7-B827-4379-85D8-AF9D65C273AA}" name="PivotTable3" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -1477,9 +3268,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C191547-023A-4450-B480-D3440E7390E4}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
       <items count="4">
@@ -1490,15 +3281,15 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
@@ -1508,7 +3299,7 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="4"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -1521,16 +3312,8 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
@@ -1547,78 +3330,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AF659C0-F0C8-4D92-9B90-C6B98663ED3E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C81B27A-3948-470C-9D29-F636E72728D4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C81B27A-3948-470C-9D29-F636E72728D4}" name="PivotTable4" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -1674,1206 +3387,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{638DB6E6-5B4D-45F7-8A8A-1DAD24D54DB0}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7E2F67A-8542-4AF7-8624-9C9125E14C8E}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22ED947-C6F5-4442-A021-7FCD16A1CEE6}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BD64302-94A3-4101-A258-21641D66AF30}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F81060C-D6C8-4D2B-B2C0-241A3F1B9FDB}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FD7D612-55A4-4052-8A3C-D1DA68AB7A3F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF603730-C23A-4196-9976-4AEF56A1F64D}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EAA06CD-DD99-410D-B21A-81CA5CA5E3C0}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C58D87D4-9967-4436-AF07-0A16F6285BF2}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7502606D-1444-47D9-9CB0-C85CA8F828FC}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9140B62D-D727-4069-91B5-99EB9F847ECD}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73FCD2B1-4D62-4786-A92B-6A771F40503A}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57FC5204-20BF-4133-86B5-A9E318DA254F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476D76E7-B827-4379-85D8-AF9D65C273AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB0E24CD-68CB-4B56-A9D6-3F54AF1D1897}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD4D01A5-8B85-4036-BA6F-504E86F4E79C}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3242,17 +3755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F7E3E5-899C-4353-956B-BB8004DB9709}">
   <dimension ref="B3:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:H32"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" max="4" activeRow="31" activeCol="5" previousRow="31" previousCol="5" click="1" r:id="rId9">
-        <pivotArea dataOnly="0" fieldPosition="0">
-          <references count="1">
-            <reference field="1" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4176,11 +4680,264 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BF2627-2119-4657-876E-D566BD419EE4}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B29">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B647E678-FD78-45CC-8F6B-B4C05C2A08A6}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -7993,4 +8750,453 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CDFC3-94F4-4E8A-AF18-C0560928813E}">
+  <dimension ref="A1:T17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>146</v>
+      </c>
+      <c r="S4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="3">
+        <v>400</v>
+      </c>
+      <c r="I5" s="3">
+        <v>100</v>
+      </c>
+      <c r="J5" s="3">
+        <v>500</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="3">
+        <v>350</v>
+      </c>
+      <c r="N5" s="3">
+        <v>150</v>
+      </c>
+      <c r="O5" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="3">
+        <v>450</v>
+      </c>
+      <c r="S5" s="3">
+        <v>50</v>
+      </c>
+      <c r="T5" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>300</v>
+      </c>
+      <c r="J6" s="3">
+        <v>300</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" s="3">
+        <v>150</v>
+      </c>
+      <c r="N6" s="3">
+        <v>150</v>
+      </c>
+      <c r="O6" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R6" s="3">
+        <v>300</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7">
+        <v>150</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="3">
+        <v>100</v>
+      </c>
+      <c r="I7" s="3">
+        <v>100</v>
+      </c>
+      <c r="J7" s="3">
+        <v>200</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M7" s="3">
+        <v>150</v>
+      </c>
+      <c r="N7" s="3">
+        <v>50</v>
+      </c>
+      <c r="O7" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="R7" s="3">
+        <v>50</v>
+      </c>
+      <c r="S7" s="3">
+        <v>150</v>
+      </c>
+      <c r="T7" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="3">
+        <v>500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3">
+        <v>650</v>
+      </c>
+      <c r="N8" s="3">
+        <v>350</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="3">
+        <v>800</v>
+      </c>
+      <c r="S8" s="3">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15">
+        <f>0.8*0.7*0.9*0.5</f>
+        <v>0.252</v>
+      </c>
+      <c r="D15">
+        <f>B15/SUM(B15:B17)</f>
+        <v>0.93074792243767313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>B16/SUM(B15:B17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="D17">
+        <f>B17/SUM(B15:B17)</f>
+        <v>6.9252077562326875E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/naive_bayes_sample_excel.xlsx
+++ b/doc/naive_bayes_sample_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Java-Naive-Bayes-Classifier-JNBC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9EE5D9-EC39-4CE7-9DCA-2D026D1DED53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E629FD76-A950-4AE0-AC68-7E77AF2F9C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="677" firstSheet="2" activeTab="8" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="677" activeTab="1" xr2:uid="{5DD707F2-665C-4F54-8809-F4F2A936AEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="158" r:id="rId11"/>
-    <pivotCache cacheId="159" r:id="rId12"/>
-    <pivotCache cacheId="165" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1157,278 +1157,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB0E24CD-68CB-4B56-A9D6-3F54AF1D1897}" name="PivotTable9" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D533B6E1-FF8D-4AA1-A7D5-D721D65A2BD8}" name="PivotTable2" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F8D8C1C-3D4B-4E3E-9BB6-631303303054}" name="PivotTable11" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AEAFA69-ED44-492F-954A-EC870EAAC390}" name="PivotTable4" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C81B27A-3948-470C-9D29-F636E72728D4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -1497,8 +1226,476 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D533B6E1-FF8D-4AA1-A7D5-D721D65A2BD8}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F8D8C1C-3D4B-4E3E-9BB6-631303303054}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AF659C0-F0C8-4D92-9B90-C6B98663ED3E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2762BB30-B462-461F-B78D-B365DEB0BBE5}" name="PivotTable3" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AEAFA69-ED44-492F-954A-EC870EAAC390}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64F9299C-C3B7-4571-A751-90AFB2CB48A5}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{638DB6E6-5B4D-45F7-8A8A-1DAD24D54DB0}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2762BB30-B462-461F-B78D-B365DEB0BBE5}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -1571,409 +1768,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F77E175A-8D61-414C-80B4-55CAF5EF1662}" name="PivotTable6" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C191547-023A-4450-B480-D3440E7390E4}" name="PivotTable9" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AF659C0-F0C8-4D92-9B90-C6B98663ED3E}" name="PivotTable5" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64F9299C-C3B7-4571-A751-90AFB2CB48A5}" name="PivotTable7" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{638DB6E6-5B4D-45F7-8A8A-1DAD24D54DB0}" name="PivotTable8" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7377CCE0-6486-4D26-A772-3EC0FA7A1B67}" name="PivotTable10" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7377CCE0-6486-4D26-A772-3EC0FA7A1B67}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -2046,8 +1842,210 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F77E175A-8D61-414C-80B4-55CAF5EF1662}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73FCD2B1-4D62-4786-A92B-6A771F40503A}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C191547-023A-4450-B480-D3440E7390E4}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FD7D612-55A4-4052-8A3C-D1DA68AB7A3F}" name="PivotTable1" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FD7D612-55A4-4052-8A3C-D1DA68AB7A3F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -2115,7 +2113,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7E2F67A-8542-4AF7-8624-9C9125E14C8E}" name="PivotTable5" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7E2F67A-8542-4AF7-8624-9C9125E14C8E}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -2162,7 +2160,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22ED947-C6F5-4442-A021-7FCD16A1CEE6}" name="PivotTable4" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22ED947-C6F5-4442-A021-7FCD16A1CEE6}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -2230,7 +2228,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BD64302-94A3-4101-A258-21641D66AF30}" name="PivotTable3" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BD64302-94A3-4101-A258-21641D66AF30}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -2298,7 +2296,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F81060C-D6C8-4D2B-B2C0-241A3F1B9FDB}" name="PivotTable2" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F81060C-D6C8-4D2B-B2C0-241A3F1B9FDB}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -2366,7 +2364,143 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EAA06CD-DD99-410D-B21A-81CA5CA5E3C0}" name="PivotTable5" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9140B62D-D727-4069-91B5-99EB9F847ECD}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF603730-C23A-4196-9976-4AEF56A1F64D}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EAA06CD-DD99-410D-B21A-81CA5CA5E3C0}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L21:M24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -2412,8 +2546,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C58D87D4-9967-4436-AF07-0A16F6285BF2}" name="PivotTable1" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C58D87D4-9967-4436-AF07-0A16F6285BF2}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B21:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -2480,8 +2614,78 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7502606D-1444-47D9-9CB0-C85CA8F828FC}" name="PivotTable2" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB0E24CD-68CB-4B56-A9D6-3F54AF1D1897}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J30:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7502606D-1444-47D9-9CB0-C85CA8F828FC}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G21:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -2548,30 +2752,40 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9140B62D-D727-4069-91B5-99EB9F847ECD}" name="PivotTable3" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G31:J36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
+<file path=xl/pivotTables/pivotTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F5FB8D8-31F3-4AD3-985A-F8CA89BC4B79}" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L3:O8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
       <items count="4">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -2602,7 +2816,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Sum of Weight" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2616,39 +2830,33 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD4D01A5-8B85-4036-BA6F-504E86F4E79C}" name="PivotTable10" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
+<file path=xl/pivotTables/pivotTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{845B5AEF-F785-4AF3-B4C3-CFBD54EDB801}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -2665,18 +2873,21 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="4"/>
+    <field x="1"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Sum of Weight" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2690,76 +2901,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF603730-C23A-4196-9976-4AEF56A1F64D}" name="PivotTable4" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B31:E36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E91DAC7-3F81-433A-8F78-6DCA3F09ACF6}" name="PivotTable10" cacheId="165" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E91DAC7-3F81-433A-8F78-6DCA3F09ACF6}" name="PivotTable10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q3:T8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -2843,227 +2986,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F5FB8D8-31F3-4AD3-985A-F8CA89BC4B79}" name="PivotTable9" cacheId="165" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L3:O8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Weight" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{845B5AEF-F785-4AF3-B4C3-CFBD54EDB801}" name="PivotTable8" cacheId="165" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G3:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Weight" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73FCD2B1-4D62-4786-A92B-6A771F40503A}" name="PivotTable8" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N30:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61A50E0-C108-4B58-A1A8-333579B6799B}" name="PivotTable6" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61A50E0-C108-4B58-A1A8-333579B6799B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="R21:S24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -3124,8 +3048,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57FC5204-20BF-4133-86B5-A9E318DA254F}" name="PivotTable5" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57FC5204-20BF-4133-86B5-A9E318DA254F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N21:P25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -3194,8 +3118,142 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB079156-A028-4ACC-B45F-5C20AF7D4A71}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476D76E7-B827-4379-85D8-AF9D65C273AA}" name="PivotTable3" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EEF72E-2F3F-4D71-9374-E42B3966A7F7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B21:D26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476D76E7-B827-4379-85D8-AF9D65C273AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F21:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -3268,9 +3326,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E93B467-7CD4-4440-BD75-7FDE97455E08}" name="PivotTable7" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R30:S33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD4D01A5-8B85-4036-BA6F-504E86F4E79C}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F30:H35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
       <items count="4">
@@ -3280,61 +3338,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C81B27A-3948-470C-9D29-F636E72728D4}" name="PivotTable4" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J21:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -3343,13 +3347,6 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
@@ -3361,14 +3358,17 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -3386,7 +3386,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Observation" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Observation" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4937,13 +4937,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B647E678-FD78-45CC-8F6B-B4C05C2A08A6}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8756,7 +8756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CDFC3-94F4-4E8A-AF18-C0560928813E}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
